--- a/Base de datos/DB.xlsx
+++ b/Base de datos/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iomint-my.sharepoint.com/personal/jabuitrago_iom_int/Documents/Documents/GitHub/VISP285/Base de datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{57F14338-254F-4542-B89A-737920A60919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1893BAD1-ADF5-4D8A-BD9A-B01516CE4143}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{57F14338-254F-4542-B89A-737920A60919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D720BCD-9485-40AA-885E-C66CF35B138E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{06E99BDB-D101-4FA9-8E06-9418F090B8D7}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="195">
   <si>
     <t>SSFV INDIVIDUAL</t>
   </si>
   <si>
-    <t>REV</t>
-  </si>
-  <si>
     <t>Junta de acción comunal de la vereda santo domingo de la localidad 20 de Sumapaz</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>C0319809-PE-00435</t>
   </si>
   <si>
-    <t>Asociación afromirandeña "ASOFRAMI"</t>
-  </si>
-  <si>
     <t>C0319455-GE-00391</t>
   </si>
   <si>
@@ -627,6 +621,9 @@
   </si>
   <si>
     <t>observation_f2</t>
+  </si>
+  <si>
+    <t>Asociación afromirandeña ASOFRAMI</t>
   </si>
 </sst>
 </file>
@@ -718,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,10 +762,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,10 +1118,10 @@
   <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,146 +1169,146 @@
     <col min="42" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5">
         <v>1004</v>
@@ -1324,83 +1320,83 @@
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="M2" s="8">
         <f ca="1">+TODAY()</f>
         <v>45782</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="P2" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="R2" s="8">
         <f ca="1">+TODAY()+1</f>
         <v>45783</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7">
         <v>1</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W2" s="8">
         <f ca="1">+TODAY()</f>
         <v>45782</v>
       </c>
       <c r="X2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="Z2" s="7">
         <v>2</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="8">
         <f ca="1">+TODAY()+2</f>
         <v>45784</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7">
         <v>1</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" s="8">
         <f ca="1">+TODAY()+6</f>
         <v>45788</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7">
@@ -1411,31 +1407,31 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="7">
         <v>1</v>
@@ -1483,26 +1479,26 @@
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
@@ -1550,26 +1546,26 @@
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
@@ -1617,26 +1613,26 @@
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -1684,26 +1680,26 @@
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="7">
         <v>1</v>
@@ -1751,26 +1747,26 @@
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7">
         <v>1</v>
@@ -1818,26 +1814,26 @@
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
@@ -1885,26 +1881,26 @@
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1952,26 +1948,26 @@
     </row>
     <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
@@ -2019,26 +2015,26 @@
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -2086,26 +2082,26 @@
     </row>
     <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -2153,26 +2149,26 @@
     </row>
     <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" s="7">
         <v>1</v>
@@ -2220,26 +2216,26 @@
     </row>
     <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15" s="7">
         <v>1</v>
@@ -2287,26 +2283,26 @@
     </row>
     <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -2354,26 +2350,26 @@
     </row>
     <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" s="7">
         <v>1</v>
@@ -2421,26 +2417,26 @@
     </row>
     <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7">
         <v>1</v>
@@ -2488,26 +2484,26 @@
     </row>
     <row r="19" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" s="7">
         <v>1</v>
@@ -2555,26 +2551,26 @@
     </row>
     <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" s="7">
         <v>1</v>
@@ -2622,26 +2618,26 @@
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7">
         <v>1</v>
@@ -2689,26 +2685,26 @@
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="7">
         <v>1</v>
@@ -2756,26 +2752,26 @@
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="7">
         <v>1</v>
@@ -2823,26 +2819,26 @@
     </row>
     <row r="24" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" s="7">
         <v>1</v>
@@ -2890,26 +2886,26 @@
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="7">
         <v>1</v>
@@ -2957,26 +2953,26 @@
     </row>
     <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="7">
         <v>1</v>
@@ -3024,26 +3020,26 @@
     </row>
     <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K27" s="7">
         <v>1</v>
@@ -3091,26 +3087,26 @@
     </row>
     <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" s="7">
         <v>1</v>
@@ -3158,26 +3154,26 @@
     </row>
     <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
@@ -3225,26 +3221,26 @@
     </row>
     <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" s="7">
         <v>1</v>
@@ -3292,26 +3288,26 @@
     </row>
     <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="7">
         <v>1</v>
@@ -3359,26 +3355,26 @@
     </row>
     <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="7">
         <v>1</v>
@@ -3426,26 +3422,26 @@
     </row>
     <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K33" s="7">
         <v>1</v>
@@ -3493,26 +3489,26 @@
     </row>
     <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="7">
         <v>1</v>
@@ -3560,26 +3556,26 @@
     </row>
     <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K35" s="7">
         <v>1</v>
@@ -3627,26 +3623,26 @@
     </row>
     <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="7">
         <v>1</v>
@@ -3694,26 +3690,26 @@
     </row>
     <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="7">
         <v>1</v>
@@ -3761,26 +3757,26 @@
     </row>
     <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" s="7">
         <v>1</v>
@@ -3828,26 +3824,26 @@
     </row>
     <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K39" s="7">
         <v>1</v>
@@ -3895,26 +3891,26 @@
     </row>
     <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K40" s="7">
         <v>1</v>
@@ -3962,26 +3958,26 @@
     </row>
     <row r="41" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K41" s="7">
         <v>1</v>
@@ -4029,26 +4025,26 @@
     </row>
     <row r="42" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42" s="7">
         <v>1</v>
@@ -4096,26 +4092,26 @@
     </row>
     <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K43" s="7">
         <v>1</v>
@@ -4163,26 +4159,26 @@
     </row>
     <row r="44" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" s="7">
         <v>1</v>
@@ -4230,26 +4226,26 @@
     </row>
     <row r="45" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="7">
         <v>1</v>
@@ -4297,26 +4293,26 @@
     </row>
     <row r="46" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" s="7">
         <v>1</v>
@@ -4364,26 +4360,26 @@
     </row>
     <row r="47" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="7">
         <v>1</v>
